--- a/medicine/Mort/Mort_en_cours_de_mandat/Mort_en_cours_de_mandat.xlsx
+++ b/medicine/Mort/Mort_en_cours_de_mandat/Mort_en_cours_de_mandat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mort en cours de mandat est une mort d’une personne qui occupait un mandat qui se trouve interrompu.
 C’est le cas de la plupart des mandat à vie (roi, pape...)
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>États-Unis
-En cas de décès du président en exercice (mais aussi en cas d’incapacité, de démission ou de retrait), le droit américain prévoit que ce soit son vice-président qui assure immédiatement sa succession et termine le mandat ; l’ordre de succession prévoit ensuite de désigner le président de la Chambre des représentants puis le président pro tempore du Sénat.
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En cas de décès du président en exercice (mais aussi en cas d’incapacité, de démission ou de retrait), le droit américain prévoit que ce soit son vice-président qui assure immédiatement sa succession et termine le mandat ; l’ordre de succession prévoit ensuite de désigner le président de la Chambre des représentants puis le président pro tempore du Sénat.
 Liste des présidents des États-Unis morts en cours de mandat :
 William Henry Harrison en 1841 (maladie)
 Zachary Taylor en 1850 (maladie)
@@ -524,57 +541,198 @@
 William McKinley en 1901 (assassiné)
 Warren G. Harding en 1923 (maladie)
 Franklin Delano Roosevelt en 1945 (maladie)
-John Fitzgerald Kennedy en 1963 (assassiné)
-France
-Les constitutions successives n’ont pas prévu de vice-président. En cas d’empêchement, sous la Cinquième République, le président du Sénat assure l’intérim et une élection présidentielle est organisée.
+John Fitzgerald Kennedy en 1963 (assassiné)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présidents de pays morts en cours de mandat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les constitutions successives n’ont pas prévu de vice-président. En cas d’empêchement, sous la Cinquième République, le président du Sénat assure l’intérim et une élection présidentielle est organisée.
 Liste des présidents de France morts en cours de mandat :
 Sadi Carnot en 1894 (assassiné)
 Félix Faure en 1899 (maladie)
 Paul Doumer en 1932 (assassiné)
-Georges Pompidou en 1974 (maladie)
-Autres pays
-Wilhelm Hertenstein, président de la Confédération suisse, en 1888
+Georges Pompidou en 1974 (maladie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présidents de pays morts en cours de mandat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wilhelm Hertenstein, président de la Confédération suisse, en 1888
 Lech Kaczyński, président de la république de Pologne, en 2010 (accident d'avion)
 Béji Caïd Essebsi, Président de la République tunisienne en 2019 (maladie)
 Ebrahim Raïssi, président de la république islamique d'Iran, en 2024 (Accident de l'hélicoptère d'Ebrahim Raïssi)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mort_en_cours_de_mandat</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Chefs de gouvernement morts en cours de mandat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Belgique
-Liste des chefs du gouvernement de Belgique morts en cours de mandat :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des chefs du gouvernement de Belgique morts en cours de mandat :
 Barthélemy de Theux de Meylandt en 1874
-Jules de Trooz en 1907 (maladie)
-France
-Liste des chefs du gouvernement français morts en cours de mandat :
-Casimir Perier en 1832 (maladie)
-Autres pays
-Yitzhak Rabin, premier ministre d'Israël en 1995 (assassinat)
+Jules de Trooz en 1907 (maladie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chefs de gouvernement morts en cours de mandat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des chefs du gouvernement français morts en cours de mandat :
+Casimir Perier en 1832 (maladie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chefs de gouvernement morts en cours de mandat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres pays</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yitzhak Rabin, premier ministre d'Israël en 1995 (assassinat)
 Vazgen Sargsian, premier ministre d'Arménie en 1999 (assassinat)
 Donald Dewar, premier ministre d'Écosse en 2000 (maladie)
 Zoran Đinđić, président du gouvernement de la République de Serbie en 2003 (assassinat)
@@ -583,34 +741,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mort_en_cours_de_mandat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Institutions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Conseil constitutionnel
-Lors de la mort d’un membre du Conseil constitutionnel, un nouveau membre est nommé par la même autorité afin de terminer le mandat.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Conseil constitutionnel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lors de la mort d’un membre du Conseil constitutionnel, un nouveau membre est nommé par la même autorité afin de terminer le mandat.
 Liste des membres du Conseil constitutionnel français morts en fonction :
 Maurice Delépine en 1960
 Henri Rey en 1977
@@ -623,14 +786,82 @@
 Étienne Dailly en 1996
 Jean-Louis Pezant en 2010
 Jacques Barrot en 2014
-Hubert Haenel en 2015
-Gouvernement
-Louis Barthou, ministre des Affaires étrangères en 1934 (blessure par balle)
+Hubert Haenel en 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Institutions françaises</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gouvernement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Louis Barthou, ministre des Affaires étrangères en 1934 (blessure par balle)
 Roger Salengro, ministre de l’Intérieur en 1936 (suicide)
 Edmond Michelet, ministre de la Culture en 1970 (hémorragie cérébrale)
-Robert Boulin, ministre du Travail et de la Participation en 1979 (suicide ou assassinat)
-Autres
-Philippe Séguin, premier président de la Cour des comptes en 2010
+Robert Boulin, ministre du Travail et de la Participation en 1979 (suicide ou assassinat)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mort_en_cours_de_mandat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Institutions françaises</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Philippe Séguin, premier président de la Cour des comptes en 2010
 Dominique Baudis, Défenseur des droits en 2014</t>
         </is>
       </c>
